--- a/wikiimages/Puzzle-6.xlsx
+++ b/wikiimages/Puzzle-6.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet7" sheetId="9" r:id="rId1"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
@@ -18,13 +18,13 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
   <si>
     <t>white_king</t>
   </si>
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dhvnish" refreshedDate="42365.559746643521" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jyothi" refreshedDate="42373.473472685182" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
   <cacheSource type="consolidation">
     <consolidation autoPage="0">
       <rangeSets count="1">
@@ -268,16 +268,18 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Value" numFmtId="0">
-      <sharedItems containsBlank="1" count="11">
+      <sharedItems containsBlank="1" count="13">
         <s v="black_rook"/>
         <m/>
-        <s v="black_queen"/>
         <s v="black_king"/>
         <s v="black_pawn"/>
+        <s v="black_knight"/>
+        <s v="black_queen"/>
+        <s v="white_queen"/>
         <s v="black_bishop"/>
         <s v="white_knight"/>
-        <s v="white_queen"/>
         <s v="white_pawn"/>
+        <s v="white_bishop"/>
         <s v="white_rook"/>
         <s v="white_king"/>
       </sharedItems>
@@ -316,7 +318,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
@@ -331,67 +333,67 @@
   <r>
     <x v="0"/>
     <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
     <x v="3"/>
   </r>
   <r>
     <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="2"/>
     <x v="4"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="2"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -406,7 +408,7 @@
   <r>
     <x v="2"/>
     <x v="6"/>
-    <x v="1"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="2"/>
@@ -426,17 +428,17 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
-    <x v="7"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
-    <x v="1"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="3"/>
@@ -446,7 +448,7 @@
   <r>
     <x v="3"/>
     <x v="6"/>
-    <x v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="3"/>
@@ -466,7 +468,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <x v="8"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="4"/>
@@ -476,7 +478,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <x v="8"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="4"/>
@@ -486,7 +488,7 @@
   <r>
     <x v="4"/>
     <x v="6"/>
-    <x v="1"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="4"/>
@@ -496,12 +498,12 @@
   <r>
     <x v="5"/>
     <x v="0"/>
-    <x v="8"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="5"/>
@@ -536,22 +538,22 @@
   <r>
     <x v="6"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
-    <x v="8"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="6"/>
     <x v="2"/>
-    <x v="8"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="6"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="6"/>
@@ -561,22 +563,22 @@
   <r>
     <x v="6"/>
     <x v="5"/>
-    <x v="8"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="6"/>
     <x v="6"/>
-    <x v="8"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="6"/>
     <x v="7"/>
-    <x v="8"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
-    <x v="9"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="7"/>
@@ -586,7 +588,7 @@
   <r>
     <x v="7"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="7"/>
@@ -601,12 +603,12 @@
   <r>
     <x v="7"/>
     <x v="5"/>
-    <x v="9"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="7"/>
     <x v="6"/>
-    <x v="10"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="7"/>
@@ -617,7 +619,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField showAll="0">
@@ -667,7 +669,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C65" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C65" totalsRowShown="0">
   <autoFilter ref="A1:C65">
     <filterColumn colId="2">
       <customFilters>
@@ -973,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,18 +1030,15 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
         <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1066,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1088,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1102,15 +1101,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13">
         <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1129,26 +1125,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17">
         <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1159,31 +1149,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1202,12 +1195,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24">
         <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1218,7 +1214,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1237,12 +1233,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28">
         <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1253,15 +1252,18 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30">
         <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1272,15 +1274,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32">
         <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1307,15 +1306,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="B36">
         <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1345,12 +1341,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
       <c r="B40">
         <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1361,23 +1360,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
       <c r="B43">
         <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1428,13 +1427,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -1458,12 +1460,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
       <c r="B53">
         <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1526,12 +1531,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7</v>
       </c>
       <c r="B60">
         <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1611,7 +1619,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1624,7 +1632,7 @@
   <dimension ref="B2:N14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,7 +1676,7 @@
     </row>
     <row r="4" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -1693,7 +1701,7 @@
     </row>
     <row r="5" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1718,7 +1726,7 @@
     </row>
     <row r="6" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
@@ -1745,7 +1753,7 @@
     </row>
     <row r="7" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
@@ -1793,7 +1801,7 @@
     </row>
     <row r="9" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2" t="s">
@@ -1814,7 +1822,7 @@
     </row>
     <row r="10" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -1847,7 +1855,7 @@
     </row>
     <row r="11" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -1926,7 +1934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>

--- a/wikiimages/Puzzle-6.xlsx
+++ b/wikiimages/Puzzle-6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet7" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -619,7 +619,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField showAll="0">
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:C64"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,9 +1741,7 @@
       <c r="I6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J6" s="1"/>
       <c r="K6" s="3">
         <v>6</v>
       </c>
@@ -1865,7 +1863,9 @@
         <v>3</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>2</v>
       </c>
